--- a/indicadores/tablas/pob/230501.xlsx
+++ b/indicadores/tablas/pob/230501.xlsx
@@ -435,7 +435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -561,7 +561,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/pob/230501.xlsx
+++ b/indicadores/tablas/pob/230501.xlsx
@@ -435,7 +435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -561,7 +561,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
